--- a/EVALUACION/GRAFICOS DE BARRAS VARIABLES PREDICCION/OPTUNA ARBOL DE DECISION/ANTECEDENTES_prediccion.xlsx
+++ b/EVALUACION/GRAFICOS DE BARRAS VARIABLES PREDICCION/OPTUNA ARBOL DE DECISION/ANTECEDENTES_prediccion.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\GRAFICOS DE BARRAS VARIABLES PREDICCION\OPTUNA ARBOL DE DECISION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACION\GRAFICOS DE BARRAS VARIABLES PREDICCION\OPTUNA ARBOL DE DECISION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109DE3BF-F9FD-4DFE-AA7E-FF44821F67E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49252ECD-F815-4B1A-BF7B-61FE0E7EB004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8560" yWindow="710" windowWidth="9240" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -403,7 +416,7 @@
                   <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>980</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,10 +1459,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1478,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C3" s="2">
         <v>0.41799999999999998</v>
